--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/F8-Ldlr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/F8-Ldlr.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.229372666666666</v>
+        <v>4.953047333333333</v>
       </c>
       <c r="H2">
-        <v>6.688117999999999</v>
+        <v>14.859142</v>
       </c>
       <c r="I2">
-        <v>0.5889623983027473</v>
+        <v>0.7703204220313993</v>
       </c>
       <c r="J2">
-        <v>0.5889623983027473</v>
+        <v>0.7703204220313993</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.398836333333334</v>
+        <v>3.087329333333333</v>
       </c>
       <c r="N2">
-        <v>7.196509000000001</v>
+        <v>9.261987999999999</v>
       </c>
       <c r="O2">
-        <v>0.09386760623633866</v>
+        <v>0.1539049749041678</v>
       </c>
       <c r="P2">
-        <v>0.09386760623633868</v>
+        <v>0.1539049749041678</v>
       </c>
       <c r="Q2">
-        <v>5.347900153340222</v>
+        <v>15.29168832158844</v>
       </c>
       <c r="R2">
-        <v>48.131101380062</v>
+        <v>137.625194894296</v>
       </c>
       <c r="S2">
-        <v>0.05528449049189194</v>
+        <v>0.1185561452209104</v>
       </c>
       <c r="T2">
-        <v>0.05528449049189195</v>
+        <v>0.1185561452209104</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.229372666666666</v>
+        <v>4.953047333333333</v>
       </c>
       <c r="H3">
-        <v>6.688117999999999</v>
+        <v>14.859142</v>
       </c>
       <c r="I3">
-        <v>0.5889623983027473</v>
+        <v>0.7703204220313993</v>
       </c>
       <c r="J3">
-        <v>0.5889623983027473</v>
+        <v>0.7703204220313993</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>17.046279</v>
       </c>
       <c r="O3">
-        <v>0.2223430006085962</v>
+        <v>0.2832552948356705</v>
       </c>
       <c r="P3">
-        <v>0.2223430006085963</v>
+        <v>0.2832552948356705</v>
       </c>
       <c r="Q3">
-        <v>12.667502823658</v>
+        <v>28.14367558140199</v>
       </c>
       <c r="R3">
-        <v>114.007525412922</v>
+        <v>253.2930802326179</v>
       </c>
       <c r="S3">
-        <v>0.130951666884268</v>
+        <v>0.2181973382604422</v>
       </c>
       <c r="T3">
-        <v>0.1309516668842681</v>
+        <v>0.2181973382604421</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.229372666666666</v>
+        <v>4.953047333333333</v>
       </c>
       <c r="H4">
-        <v>6.688117999999999</v>
+        <v>14.859142</v>
       </c>
       <c r="I4">
-        <v>0.5889623983027473</v>
+        <v>0.7703204220313993</v>
       </c>
       <c r="J4">
-        <v>0.5889623983027473</v>
+        <v>0.7703204220313993</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.300086333333334</v>
+        <v>4.823431</v>
       </c>
       <c r="N4">
-        <v>15.900259</v>
+        <v>14.470293</v>
       </c>
       <c r="O4">
-        <v>0.2073948981190463</v>
+        <v>0.2404505470122564</v>
       </c>
       <c r="P4">
-        <v>0.2073948981190463</v>
+        <v>0.2404505470122564</v>
       </c>
       <c r="Q4">
-        <v>11.81586760250689</v>
+        <v>23.89068205206733</v>
       </c>
       <c r="R4">
-        <v>106.342808422562</v>
+        <v>215.016138468606</v>
       </c>
       <c r="S4">
-        <v>0.1221477965919475</v>
+        <v>0.1852239668521622</v>
       </c>
       <c r="T4">
-        <v>0.1221477965919475</v>
+        <v>0.1852239668521622</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.229372666666666</v>
+        <v>4.953047333333333</v>
       </c>
       <c r="H5">
-        <v>6.688117999999999</v>
+        <v>14.859142</v>
       </c>
       <c r="I5">
-        <v>0.5889623983027473</v>
+        <v>0.7703204220313993</v>
       </c>
       <c r="J5">
-        <v>0.5889623983027473</v>
+        <v>0.7703204220313993</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.17451333333333</v>
+        <v>6.467117666666667</v>
       </c>
       <c r="N5">
-        <v>36.52354</v>
+        <v>19.401353</v>
       </c>
       <c r="O5">
-        <v>0.4763944950360187</v>
+        <v>0.3223891832479054</v>
       </c>
       <c r="P5">
-        <v>0.4763944950360188</v>
+        <v>0.3223891832479053</v>
       </c>
       <c r="Q5">
-        <v>27.14152725530221</v>
+        <v>32.03193991323622</v>
       </c>
       <c r="R5">
-        <v>244.27374529772</v>
+        <v>288.287459219126</v>
       </c>
       <c r="S5">
-        <v>0.2805784443346399</v>
+        <v>0.2483429716978846</v>
       </c>
       <c r="T5">
-        <v>0.2805784443346399</v>
+        <v>0.2483429716978846</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>2.622792</v>
       </c>
       <c r="I6">
-        <v>0.2309657016471988</v>
+        <v>0.135969508894967</v>
       </c>
       <c r="J6">
-        <v>0.2309657016471987</v>
+        <v>0.135969508894967</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.398836333333334</v>
+        <v>3.087329333333333</v>
       </c>
       <c r="N6">
-        <v>7.196509000000001</v>
+        <v>9.261987999999999</v>
       </c>
       <c r="O6">
-        <v>0.09386760623633866</v>
+        <v>0.1539049749041678</v>
       </c>
       <c r="P6">
-        <v>0.09386760623633868</v>
+        <v>0.1539049749041678</v>
       </c>
       <c r="Q6">
-        <v>2.097216248125334</v>
+        <v>2.699140892277333</v>
       </c>
       <c r="R6">
-        <v>18.874946233128</v>
+        <v>24.292268030496</v>
       </c>
       <c r="S6">
-        <v>0.02168019753631893</v>
+        <v>0.02092638385421191</v>
       </c>
       <c r="T6">
-        <v>0.02168019753631893</v>
+        <v>0.02092638385421191</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>2.622792</v>
       </c>
       <c r="I7">
-        <v>0.2309657016471988</v>
+        <v>0.135969508894967</v>
       </c>
       <c r="J7">
-        <v>0.2309657016471987</v>
+        <v>0.135969508894967</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>17.046279</v>
       </c>
       <c r="O7">
-        <v>0.2223430006085962</v>
+        <v>0.2832552948356705</v>
       </c>
       <c r="P7">
-        <v>0.2223430006085963</v>
+        <v>0.2832552948356705</v>
       </c>
       <c r="Q7">
         <v>4.967649354551999</v>
@@ -883,10 +883,10 @@
         <v>44.70884419096799</v>
       </c>
       <c r="S7">
-        <v>0.05135360714190797</v>
+        <v>0.0385140833307052</v>
       </c>
       <c r="T7">
-        <v>0.05135360714190797</v>
+        <v>0.0385140833307052</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>2.622792</v>
       </c>
       <c r="I8">
-        <v>0.2309657016471988</v>
+        <v>0.135969508894967</v>
       </c>
       <c r="J8">
-        <v>0.2309657016471987</v>
+        <v>0.135969508894967</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.300086333333334</v>
+        <v>4.823431</v>
       </c>
       <c r="N8">
-        <v>15.900259</v>
+        <v>14.470293</v>
       </c>
       <c r="O8">
-        <v>0.2073948981190463</v>
+        <v>0.2404505470122564</v>
       </c>
       <c r="P8">
-        <v>0.2073948981190463</v>
+        <v>0.2404505470122564</v>
       </c>
       <c r="Q8">
-        <v>4.633674678125334</v>
+        <v>4.216952079784001</v>
       </c>
       <c r="R8">
-        <v>41.703072103128</v>
+        <v>37.952568718056</v>
       </c>
       <c r="S8">
-        <v>0.04790110816211483</v>
+        <v>0.03269394279078269</v>
       </c>
       <c r="T8">
-        <v>0.04790110816211483</v>
+        <v>0.03269394279078268</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>2.622792</v>
       </c>
       <c r="I9">
-        <v>0.2309657016471988</v>
+        <v>0.135969508894967</v>
       </c>
       <c r="J9">
-        <v>0.2309657016471987</v>
+        <v>0.135969508894967</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.17451333333333</v>
+        <v>6.467117666666667</v>
       </c>
       <c r="N9">
-        <v>36.52354</v>
+        <v>19.401353</v>
       </c>
       <c r="O9">
-        <v>0.4763944950360187</v>
+        <v>0.3223891832479054</v>
       </c>
       <c r="P9">
-        <v>0.4763944950360188</v>
+        <v>0.3223891832479053</v>
       </c>
       <c r="Q9">
-        <v>10.64373872485333</v>
+        <v>5.653968159730667</v>
       </c>
       <c r="R9">
-        <v>95.79364852367999</v>
+        <v>50.885713437576</v>
       </c>
       <c r="S9">
-        <v>0.110030788806857</v>
+        <v>0.04383509891926722</v>
       </c>
       <c r="T9">
-        <v>0.110030788806857</v>
+        <v>0.04383509891926721</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.544844</v>
+        <v>0.5382536666666667</v>
       </c>
       <c r="H10">
-        <v>1.634532</v>
+        <v>1.614761</v>
       </c>
       <c r="I10">
-        <v>0.1439385320089428</v>
+        <v>0.08371165542397027</v>
       </c>
       <c r="J10">
-        <v>0.1439385320089428</v>
+        <v>0.08371165542397027</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.398836333333334</v>
+        <v>3.087329333333333</v>
       </c>
       <c r="N10">
-        <v>7.196509000000001</v>
+        <v>9.261987999999999</v>
       </c>
       <c r="O10">
-        <v>0.09386760623633866</v>
+        <v>0.1539049749041678</v>
       </c>
       <c r="P10">
-        <v>0.09386760623633868</v>
+        <v>0.1539049749041678</v>
       </c>
       <c r="Q10">
-        <v>1.306991583198667</v>
+        <v>1.661766333874222</v>
       </c>
       <c r="R10">
-        <v>11.762924248788</v>
+        <v>14.955897004868</v>
       </c>
       <c r="S10">
-        <v>0.01351116544485207</v>
+        <v>0.01288364022721248</v>
       </c>
       <c r="T10">
-        <v>0.01351116544485207</v>
+        <v>0.01288364022721248</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.544844</v>
+        <v>0.5382536666666667</v>
       </c>
       <c r="H11">
-        <v>1.634532</v>
+        <v>1.614761</v>
       </c>
       <c r="I11">
-        <v>0.1439385320089428</v>
+        <v>0.08371165542397027</v>
       </c>
       <c r="J11">
-        <v>0.1439385320089428</v>
+        <v>0.08371165542397027</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>17.046279</v>
       </c>
       <c r="O11">
-        <v>0.2223430006085962</v>
+        <v>0.2832552948356705</v>
       </c>
       <c r="P11">
-        <v>0.2223430006085963</v>
+        <v>0.2832552948356705</v>
       </c>
       <c r="Q11">
-        <v>3.095854278491999</v>
+        <v>3.058407391591</v>
       </c>
       <c r="R11">
-        <v>27.862688506428</v>
+        <v>27.525666524319</v>
       </c>
       <c r="S11">
-        <v>0.03200372511006482</v>
+        <v>0.02371176963829876</v>
       </c>
       <c r="T11">
-        <v>0.03200372511006482</v>
+        <v>0.02371176963829875</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.544844</v>
+        <v>0.5382536666666667</v>
       </c>
       <c r="H12">
-        <v>1.634532</v>
+        <v>1.614761</v>
       </c>
       <c r="I12">
-        <v>0.1439385320089428</v>
+        <v>0.08371165542397027</v>
       </c>
       <c r="J12">
-        <v>0.1439385320089428</v>
+        <v>0.08371165542397027</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.300086333333334</v>
+        <v>4.823431</v>
       </c>
       <c r="N12">
-        <v>15.900259</v>
+        <v>14.470293</v>
       </c>
       <c r="O12">
-        <v>0.2073948981190463</v>
+        <v>0.2404505470122564</v>
       </c>
       <c r="P12">
-        <v>0.2073948981190463</v>
+        <v>0.2404505470122564</v>
       </c>
       <c r="Q12">
-        <v>2.887720238198667</v>
+        <v>2.596229421663667</v>
       </c>
       <c r="R12">
-        <v>25.989482143788</v>
+        <v>23.366064794973</v>
       </c>
       <c r="S12">
-        <v>0.02985211718139977</v>
+        <v>0.02012851333799517</v>
       </c>
       <c r="T12">
-        <v>0.02985211718139977</v>
+        <v>0.02012851333799517</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.544844</v>
+        <v>0.5382536666666667</v>
       </c>
       <c r="H13">
-        <v>1.634532</v>
+        <v>1.614761</v>
       </c>
       <c r="I13">
-        <v>0.1439385320089428</v>
+        <v>0.08371165542397027</v>
       </c>
       <c r="J13">
-        <v>0.1439385320089428</v>
+        <v>0.08371165542397027</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>12.17451333333333</v>
+        <v>6.467117666666667</v>
       </c>
       <c r="N13">
-        <v>36.52354</v>
+        <v>19.401353</v>
       </c>
       <c r="O13">
-        <v>0.4763944950360187</v>
+        <v>0.3223891832479054</v>
       </c>
       <c r="P13">
-        <v>0.4763944950360188</v>
+        <v>0.3223891832479053</v>
       </c>
       <c r="Q13">
-        <v>6.633210542586665</v>
+        <v>3.480949796848112</v>
       </c>
       <c r="R13">
-        <v>59.69889488328</v>
+        <v>31.328548171633</v>
       </c>
       <c r="S13">
-        <v>0.06857152427262611</v>
+        <v>0.02698773222046387</v>
       </c>
       <c r="T13">
-        <v>0.06857152427262611</v>
+        <v>0.02698773222046386</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.136774</v>
+        <v>0.06428833333333334</v>
       </c>
       <c r="H14">
-        <v>0.410322</v>
+        <v>0.192865</v>
       </c>
       <c r="I14">
-        <v>0.0361333680411111</v>
+        <v>0.009998413649663342</v>
       </c>
       <c r="J14">
-        <v>0.0361333680411111</v>
+        <v>0.009998413649663342</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.398836333333334</v>
+        <v>3.087329333333333</v>
       </c>
       <c r="N14">
-        <v>7.196509000000001</v>
+        <v>9.261987999999999</v>
       </c>
       <c r="O14">
-        <v>0.09386760623633866</v>
+        <v>0.1539049749041678</v>
       </c>
       <c r="P14">
-        <v>0.09386760623633868</v>
+        <v>0.1539049749041678</v>
       </c>
       <c r="Q14">
-        <v>0.3280984406553333</v>
+        <v>0.1984792572911111</v>
       </c>
       <c r="R14">
-        <v>2.952885965898</v>
+        <v>1.78631331562</v>
       </c>
       <c r="S14">
-        <v>0.00339175276327572</v>
+        <v>0.001538805601832925</v>
       </c>
       <c r="T14">
-        <v>0.003391752763275721</v>
+        <v>0.001538805601832925</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.136774</v>
+        <v>0.06428833333333334</v>
       </c>
       <c r="H15">
-        <v>0.410322</v>
+        <v>0.192865</v>
       </c>
       <c r="I15">
-        <v>0.0361333680411111</v>
+        <v>0.009998413649663342</v>
       </c>
       <c r="J15">
-        <v>0.0361333680411111</v>
+        <v>0.009998413649663342</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>17.046279</v>
       </c>
       <c r="O15">
-        <v>0.2223430006085962</v>
+        <v>0.2832552948356705</v>
       </c>
       <c r="P15">
-        <v>0.2223430006085963</v>
+        <v>0.2832552948356705</v>
       </c>
       <c r="Q15">
-        <v>0.7771625879819998</v>
+        <v>0.365292288815</v>
       </c>
       <c r="R15">
-        <v>6.994463291837999</v>
+        <v>3.287630599335</v>
       </c>
       <c r="S15">
-        <v>0.008034001472355397</v>
+        <v>0.002832103606224382</v>
       </c>
       <c r="T15">
-        <v>0.008034001472355399</v>
+        <v>0.002832103606224382</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.136774</v>
+        <v>0.06428833333333334</v>
       </c>
       <c r="H16">
-        <v>0.410322</v>
+        <v>0.192865</v>
       </c>
       <c r="I16">
-        <v>0.0361333680411111</v>
+        <v>0.009998413649663342</v>
       </c>
       <c r="J16">
-        <v>0.0361333680411111</v>
+        <v>0.009998413649663342</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.300086333333334</v>
+        <v>4.823431</v>
       </c>
       <c r="N16">
-        <v>15.900259</v>
+        <v>14.470293</v>
       </c>
       <c r="O16">
-        <v>0.2073948981190463</v>
+        <v>0.2404505470122564</v>
       </c>
       <c r="P16">
-        <v>0.2073948981190463</v>
+        <v>0.2404505470122564</v>
       </c>
       <c r="Q16">
-        <v>0.7249140081553332</v>
+        <v>0.3100903399383333</v>
       </c>
       <c r="R16">
-        <v>6.524226073397999</v>
+        <v>2.790813059445</v>
       </c>
       <c r="S16">
-        <v>0.007493876183584241</v>
+        <v>0.002404124031316362</v>
       </c>
       <c r="T16">
-        <v>0.007493876183584241</v>
+        <v>0.002404124031316362</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.136774</v>
+        <v>0.06428833333333334</v>
       </c>
       <c r="H17">
-        <v>0.410322</v>
+        <v>0.192865</v>
       </c>
       <c r="I17">
-        <v>0.0361333680411111</v>
+        <v>0.009998413649663342</v>
       </c>
       <c r="J17">
-        <v>0.0361333680411111</v>
+        <v>0.009998413649663342</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>12.17451333333333</v>
+        <v>6.467117666666667</v>
       </c>
       <c r="N17">
-        <v>36.52354</v>
+        <v>19.401353</v>
       </c>
       <c r="O17">
-        <v>0.4763944950360187</v>
+        <v>0.3223891832479054</v>
       </c>
       <c r="P17">
-        <v>0.4763944950360188</v>
+        <v>0.3223891832479053</v>
       </c>
       <c r="Q17">
-        <v>1.665156886653333</v>
+        <v>0.4157602162605556</v>
       </c>
       <c r="R17">
-        <v>14.98641197988</v>
+        <v>3.741841946345</v>
       </c>
       <c r="S17">
-        <v>0.01721373762189574</v>
+        <v>0.003223380410289673</v>
       </c>
       <c r="T17">
-        <v>0.01721373762189574</v>
+        <v>0.003223380410289673</v>
       </c>
     </row>
   </sheetData>
